--- a/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99225EB3-B065-4CC2-B0ED-FDF37B40D2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D8A521-C213-4B5B-97DE-D657766A5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0D81E149-4244-4A1A-82FD-91E84C21FCD0}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D7807E02-57E9-48D7-AAB5-2F5A740274EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,229 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
   </si>
   <si>
     <t>9,74%</t>
@@ -83,9 +302,6 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>11,1%</t>
   </si>
   <si>
@@ -98,39 +314,6 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>0,83%</t>
   </si>
   <si>
@@ -155,39 +338,6 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>1,61%</t>
   </si>
   <si>
@@ -212,117 +362,162 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
     <t>8,14%</t>
   </si>
   <si>
@@ -347,33 +542,6 @@
     <t>12,5%</t>
   </si>
   <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
     <t>2,7%</t>
   </si>
   <si>
@@ -389,30 +557,6 @@
     <t>4,23%</t>
   </si>
   <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
     <t>2,0%</t>
   </si>
   <si>
@@ -434,148 +578,58 @@
     <t>6,44%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -605,33 +659,6 @@
     <t>8,66%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
@@ -651,33 +678,6 @@
   </si>
   <si>
     <t>2,58%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -1093,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BADB71-1EC2-4E92-9ACC-4E70F08E8361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36518-FAC5-4B28-868B-210BC864E57F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1211,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>10003</v>
+        <v>1745</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1226,238 +1226,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1581</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3339</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11584</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>34689</v>
+        <v>579</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>579</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17743</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>61</v>
-      </c>
-      <c r="N5" s="7">
-        <v>52432</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>3126</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>3978</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>55505</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>32902</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>88408</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1707</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>3356</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1466,108 +1466,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>1735</v>
+        <v>24663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>3387</v>
+        <v>21929</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="7">
         <v>63</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
       <c r="N10" s="7">
-        <v>5122</v>
+        <v>46591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>18</v>
@@ -1576,13 +1576,13 @@
         <v>15567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1591,13 +1591,13 @@
         <v>5483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -1606,121 +1606,121 @@
         <v>21050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>3387</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>5122</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>24663</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>21929</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>46591</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1744,13 +1744,13 @@
         <v>1099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1759,13 +1759,13 @@
         <v>1099</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1780,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1795,13 +1795,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1810,270 +1810,270 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>4588</v>
+        <v>55505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>2997</v>
+        <v>32902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="N16" s="7">
-        <v>7585</v>
+        <v>88408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>20771</v>
+        <v>34689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>24937</v>
+        <v>17743</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N17" s="7">
-        <v>45708</v>
+        <v>52432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>10003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>929</v>
+        <v>1581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>929</v>
+        <v>11584</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>29858</v>
+        <v>852</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>25901</v>
+        <v>3126</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>55759</v>
+        <v>3978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>1125</v>
+        <v>1649</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>2845</v>
+        <v>3356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,261 +2082,261 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N21" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>42390</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>32023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>74412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>579</v>
+        <v>18924</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20204</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N23" s="7">
-        <v>579</v>
+        <v>39128</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>2537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2463</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="7">
+        <v>7</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5000</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1593</v>
+        <v>819</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>3339</v>
+        <v>819</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,303 +2390,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H27" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I27" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M27" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D28" s="7">
-        <v>2537</v>
+        <v>29858</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="7">
+        <v>37</v>
+      </c>
+      <c r="I28" s="7">
+        <v>25901</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>76</v>
+      </c>
+      <c r="N28" s="7">
+        <v>55759</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2463</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7</v>
-      </c>
-      <c r="N28" s="7">
-        <v>5000</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>18924</v>
+        <v>20771</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="7">
+        <v>30</v>
+      </c>
+      <c r="I29" s="7">
+        <v>24937</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>54</v>
+      </c>
+      <c r="N29" s="7">
+        <v>45708</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="7">
-        <v>18</v>
-      </c>
-      <c r="I29" s="7">
-        <v>20204</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M29" s="7">
-        <v>34</v>
-      </c>
-      <c r="N29" s="7">
-        <v>39128</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>4588</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2997</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7">
-        <v>819</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>10</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7585</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>819</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>42390</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>929</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
+        <v>929</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="7">
-        <v>43</v>
-      </c>
-      <c r="I31" s="7">
-        <v>32023</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="P31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M31" s="7">
-        <v>89</v>
-      </c>
-      <c r="N31" s="7">
-        <v>74412</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>1720</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2845</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>179</v>
@@ -2698,49 +2698,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H33" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I33" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M33" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N33" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,10 +2751,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="D34" s="7">
-        <v>18864</v>
+        <v>154160</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>180</v>
@@ -2766,10 +2766,10 @@
         <v>182</v>
       </c>
       <c r="H34" s="7">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I34" s="7">
-        <v>10428</v>
+        <v>114349</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>183</v>
@@ -2781,10 +2781,10 @@
         <v>185</v>
       </c>
       <c r="M34" s="7">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="N34" s="7">
-        <v>29292</v>
+        <v>268509</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>186</v>
@@ -2799,7 +2799,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>95</v>
@@ -2850,97 +2850,97 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D36" s="7">
-        <v>852</v>
+        <v>18864</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>198</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H36" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I36" s="7">
-        <v>4875</v>
+        <v>10428</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="N36" s="7">
-        <v>5727</v>
+        <v>29292</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>154160</v>
+        <v>852</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H37" s="7">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="I37" s="7">
-        <v>114349</v>
+        <v>4875</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M37" s="7">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>268509</v>
+        <v>5727</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>212</v>
@@ -2952,7 +2952,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -2979,7 +2979,7 @@
         <v>217</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>218</v>
@@ -3012,13 +3012,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3027,13 +3027,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -3042,13 +3042,13 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D8A521-C213-4B5B-97DE-D657766A5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD9318A-8718-4D1C-96AB-CD772D87ABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D7807E02-57E9-48D7-AAB5-2F5A740274EC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA4B4CC6-5A96-4D8D-A006-9E159A3BD4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="225">
   <si>
     <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -68,6 +68,45 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
@@ -92,616 +131,586 @@
     <t>52,81%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>68,75%</t>
   </si>
   <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
     <t>54,05%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
   </si>
   <si>
     <t>55,34%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -712,7 +721,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -808,39 +817,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -892,7 +901,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1003,13 +1012,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1018,6 +1020,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1082,19 +1091,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C36518-FAC5-4B28-868B-210BC864E57F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A820630-BE06-4146-A0E0-62EF8F979D48}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1211,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1745</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1226,55 +1255,55 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3339</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1283,34 +1312,34 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1319,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1334,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1349,115 +1378,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>579</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1593</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3339</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,13 +1501,13 @@
         <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1487,13 +1516,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -1502,13 +1531,13 @@
         <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,106 +1548,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>24663</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1099</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7">
-        <v>21929</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1099</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="7">
-        <v>63</v>
-      </c>
-      <c r="N10" s="7">
-        <v>46591</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>15567</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>5483</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>21050</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -1627,13 +1656,13 @@
         <v>1735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1642,13 +1671,13 @@
         <v>3387</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1657,112 +1686,112 @@
         <v>5122</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>15567</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>21050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>24663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>1099</v>
+        <v>21929</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>63</v>
+      </c>
+      <c r="N14" s="7">
+        <v>46591</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1099</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>64</v>
@@ -1780,13 +1809,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1795,13 +1824,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1810,13 +1839,13 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>55505</v>
+        <v>1649</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
@@ -1842,91 +1871,91 @@
         <v>68</v>
       </c>
       <c r="H16" s="7">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>32902</v>
+        <v>1707</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3356</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="7">
-        <v>113</v>
-      </c>
-      <c r="N16" s="7">
-        <v>88408</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>34689</v>
+        <v>852</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3126</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17743</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3978</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M17" s="7">
-        <v>61</v>
-      </c>
-      <c r="N17" s="7">
-        <v>52432</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -1935,13 +1964,13 @@
         <v>10003</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1950,13 +1979,13 @@
         <v>1581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -1965,106 +1994,106 @@
         <v>11584</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>852</v>
+        <v>34689</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7">
+        <v>17743</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3126</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>61</v>
+      </c>
+      <c r="N19" s="7">
+        <v>52432</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3978</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>1649</v>
+        <v>55505</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>46</v>
+      </c>
+      <c r="I20" s="7">
+        <v>32902</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1707</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>104</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="N20" s="7">
-        <v>3356</v>
+        <v>88408</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>105</v>
@@ -2088,13 +2117,13 @@
         <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2103,13 +2132,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -2118,13 +2147,13 @@
         <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,106 +2164,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>42390</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="7">
-        <v>43</v>
-      </c>
-      <c r="I22" s="7">
-        <v>32023</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="7">
-        <v>89</v>
-      </c>
-      <c r="N22" s="7">
-        <v>74412</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>18924</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>20204</v>
+        <v>819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>39128</v>
+        <v>819</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -2243,13 +2272,13 @@
         <v>2537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2258,13 +2287,13 @@
         <v>2463</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2273,112 +2302,112 @@
         <v>5000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>18924</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>819</v>
+        <v>20204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N25" s="7">
-        <v>819</v>
+        <v>39128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>42390</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>135</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>32023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="7">
+        <v>89</v>
+      </c>
+      <c r="N26" s="7">
+        <v>74412</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>141</v>
@@ -2396,13 +2425,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2411,13 +2440,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2426,13 +2455,13 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,106 +2472,106 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>29858</v>
+        <v>1125</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1720</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="7">
-        <v>37</v>
-      </c>
-      <c r="I28" s="7">
-        <v>25901</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>4</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2845</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M28" s="7">
-        <v>76</v>
-      </c>
-      <c r="N28" s="7">
-        <v>55759</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>20771</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>929</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <v>929</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="7">
-        <v>30</v>
-      </c>
-      <c r="I29" s="7">
-        <v>24937</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M29" s="7">
-        <v>54</v>
-      </c>
-      <c r="N29" s="7">
-        <v>45708</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
@@ -2551,13 +2580,13 @@
         <v>4588</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2566,13 +2595,13 @@
         <v>2997</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2581,61 +2610,61 @@
         <v>7585</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>20771</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="7">
+        <v>30</v>
+      </c>
+      <c r="I31" s="7">
+        <v>24937</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>929</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>54</v>
+      </c>
+      <c r="N31" s="7">
+        <v>45708</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>929</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>172</v>
@@ -2644,52 +2673,52 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D32" s="7">
-        <v>1125</v>
+        <v>29858</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I32" s="7">
-        <v>1720</v>
+        <v>25901</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="N32" s="7">
-        <v>2845</v>
+        <v>55759</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2733,13 @@
         <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2719,13 +2748,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M33" s="7">
         <v>145</v>
@@ -2734,13 +2763,13 @@
         <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,106 +2780,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2774</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="7">
-        <v>154160</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="H34" s="7">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="I34" s="7">
-        <v>114349</v>
+        <v>4527</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7">
-        <v>347</v>
+        <v>10</v>
       </c>
       <c r="N34" s="7">
-        <v>268509</v>
+        <v>7301</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>90530</v>
+        <v>852</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="I35" s="7">
-        <v>68367</v>
+        <v>4875</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M35" s="7">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="N35" s="7">
-        <v>158897</v>
+        <v>5727</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
         <v>22</v>
@@ -2859,13 +2888,13 @@
         <v>18864</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -2874,10 +2903,10 @@
         <v>10428</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>203</v>
@@ -2892,37 +2921,37 @@
         <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="D37" s="7">
-        <v>852</v>
+        <v>90530</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>208</v>
       </c>
       <c r="H37" s="7">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="I37" s="7">
-        <v>4875</v>
+        <v>68367</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>209</v>
@@ -2934,70 +2963,70 @@
         <v>211</v>
       </c>
       <c r="M37" s="7">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="N37" s="7">
-        <v>5727</v>
+        <v>158897</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C38" s="7">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="D38" s="7">
-        <v>2774</v>
+        <v>154160</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H38" s="7">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="I38" s="7">
-        <v>4527</v>
+        <v>114349</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M38" s="7">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="N38" s="7">
-        <v>7301</v>
+        <v>268509</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3041,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3027,13 +3056,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -3042,13 +3071,18 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD9318A-8718-4D1C-96AB-CD772D87ABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C294A4-2F86-435B-A78F-41C3921D11BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA4B4CC6-5A96-4D8D-A006-9E159A3BD4BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EFF3B8D-D619-4E75-A758-4C238D77DBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -98,13 +98,13 @@
     <t>24,91%</t>
   </si>
   <si>
-    <t>77,16%</t>
+    <t>100,0%</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>47,19%</t>
+    <t>68,3%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -113,12 +113,6 @@
     <t>75,09%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
@@ -128,10 +122,10 @@
     <t>85,22%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -140,13 +134,13 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>16,62%</t>
+    <t>13,76%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>9,0%</t>
+    <t>8,05%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -158,213 +152,216 @@
     <t>4,14%</t>
   </si>
   <si>
-    <t>12,66%</t>
+    <t>12,12%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
     <t>2,86%</t>
   </si>
   <si>
@@ -374,94 +371,91 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>8,53%</t>
+    <t>8,65%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,37%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>57,69%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -470,22 +464,25 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>9,01%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>10,24%</t>
+    <t>10,32%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -494,94 +491,94 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>8,34%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,93%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>44,15%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>45,86%</t>
   </si>
   <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -590,124 +587,127 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,57%</t>
+    <t>2,84%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>5,65%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>8,54%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>8,85%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A820630-BE06-4146-A0E0-62EF8F979D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A3A899-BE88-402E-ADB3-A71AD4C9D50C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1453,10 +1453,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1465,13 +1465,13 @@
         <v>1593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1480,13 +1480,13 @@
         <v>3339</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,13 +1501,13 @@
         <v>2324</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1516,13 +1516,13 @@
         <v>1593</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -1531,18 +1531,18 @@
         <v>3918</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1560,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1569,13 +1569,13 @@
         <v>1099</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1584,13 +1584,13 @@
         <v>1099</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1656,13 @@
         <v>1735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -1671,13 +1671,13 @@
         <v>3387</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1686,13 +1686,13 @@
         <v>5122</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,13 +1707,13 @@
         <v>15567</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1722,13 +1722,13 @@
         <v>5483</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1737,13 +1737,13 @@
         <v>21050</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1758,13 @@
         <v>24663</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -1773,13 +1773,13 @@
         <v>21929</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -1788,13 +1788,13 @@
         <v>46591</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,13 +1809,13 @@
         <v>41965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>47</v>
@@ -1824,13 +1824,13 @@
         <v>31899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1839,18 +1839,18 @@
         <v>73863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1862,13 +1862,13 @@
         <v>1649</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1877,13 +1877,13 @@
         <v>1707</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1892,13 +1892,13 @@
         <v>3356</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1913,13 @@
         <v>852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -1928,13 +1928,13 @@
         <v>3126</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1943,13 +1943,13 @@
         <v>3978</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,13 +1964,13 @@
         <v>10003</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -1979,13 +1979,13 @@
         <v>1581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -1994,13 +1994,13 @@
         <v>11584</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2015,13 @@
         <v>34689</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -2030,13 +2030,13 @@
         <v>17743</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -2045,13 +2045,13 @@
         <v>52432</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,13 +2066,13 @@
         <v>55505</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2081,13 +2081,13 @@
         <v>32902</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -2096,13 +2096,13 @@
         <v>88408</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2117,13 @@
         <v>102698</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -2132,13 +2132,13 @@
         <v>57060</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -2147,18 +2147,18 @@
         <v>159759</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2176,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2236,13 +2236,13 @@
         <v>819</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2251,13 +2251,13 @@
         <v>819</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2272,13 @@
         <v>2537</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2287,13 +2287,13 @@
         <v>2463</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -2302,13 +2302,13 @@
         <v>5000</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2323,13 @@
         <v>18924</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2338,13 +2338,13 @@
         <v>20204</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -2353,13 +2353,13 @@
         <v>39128</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2374,13 @@
         <v>42390</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -2389,13 +2389,13 @@
         <v>32023</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -2404,13 +2404,13 @@
         <v>74412</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2425,13 @@
         <v>63851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H27" s="7">
         <v>66</v>
@@ -2440,13 +2440,13 @@
         <v>55509</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7">
         <v>131</v>
@@ -2455,18 +2455,18 @@
         <v>119360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2478,13 +2478,13 @@
         <v>1125</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2493,13 +2493,13 @@
         <v>1720</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2508,13 +2508,13 @@
         <v>2845</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2544,13 +2544,13 @@
         <v>929</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2559,13 +2559,13 @@
         <v>929</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2580,13 @@
         <v>4588</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2595,13 +2595,13 @@
         <v>2997</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -2610,13 +2610,13 @@
         <v>7585</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2631,13 @@
         <v>20771</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H31" s="7">
         <v>30</v>
@@ -2646,13 +2646,13 @@
         <v>24937</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>54</v>
@@ -2661,13 +2661,13 @@
         <v>45708</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2682,13 @@
         <v>29858</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>37</v>
@@ -2697,13 +2697,13 @@
         <v>25901</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M32" s="7">
         <v>76</v>
@@ -2712,13 +2712,13 @@
         <v>55759</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2733,13 @@
         <v>56342</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H33" s="7">
         <v>75</v>
@@ -2748,13 +2748,13 @@
         <v>56484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M33" s="7">
         <v>145</v>
@@ -2763,13 +2763,13 @@
         <v>112826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2786,13 @@
         <v>2774</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -2801,13 +2801,13 @@
         <v>4527</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -2816,13 +2816,13 @@
         <v>7301</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2837,13 @@
         <v>852</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -2852,13 +2852,13 @@
         <v>4875</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -2867,13 +2867,13 @@
         <v>5727</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2888,13 @@
         <v>18864</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -2903,13 +2903,13 @@
         <v>10428</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -2918,10 +2918,10 @@
         <v>29292</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>205</v>
@@ -3041,13 +3041,13 @@
         <v>267180</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H39" s="7">
         <v>270</v>
@@ -3056,13 +3056,13 @@
         <v>202546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M39" s="7">
         <v>577</v>
@@ -3071,13 +3071,13 @@
         <v>469726</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C294A4-2F86-435B-A78F-41C3921D11BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCB05A1-2988-482D-BA26-FC3318932FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EFF3B8D-D619-4E75-A758-4C238D77DBDB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2CE6FE3F-C2AA-4F90-BE82-AF800D53DCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="225">
-  <si>
-    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="196">
+  <si>
+    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,649 +65,562 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1122,8 +1035,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A3A899-BE88-402E-ADB3-A71AD4C9D50C}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696C5839-9033-48C5-89CC-FAED566ACC70}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1240,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>16460</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1255,238 +1168,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>30406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>46866</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>12314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>12852</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>25165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2978</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>579</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>579</v>
+        <v>783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1745</v>
+        <v>680</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1593</v>
+        <v>1003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>3339</v>
+        <v>1682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,306 +1408,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>32761</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>1099</v>
+        <v>53933</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>1099</v>
+        <v>86694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>16775</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>33832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>50606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>1735</v>
+        <v>3345</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>3387</v>
+        <v>10977</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>5122</v>
+        <v>14322</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>15567</v>
+        <v>163</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>5483</v>
+        <v>2248</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>21050</v>
+        <v>2411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>24663</v>
+        <v>590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>21929</v>
+        <v>1788</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>46591</v>
+        <v>2377</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,306 +1716,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N15" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>1649</v>
+        <v>59293</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>1707</v>
+        <v>48598</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="N16" s="7">
-        <v>3356</v>
+        <v>107892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
       <c r="D17" s="7">
-        <v>852</v>
+        <v>11668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>3126</v>
+        <v>15984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>3978</v>
+        <v>27651</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>10003</v>
+        <v>1222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
-        <v>1581</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="7">
-        <v>14</v>
-      </c>
       <c r="N18" s="7">
-        <v>11584</v>
+        <v>1222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>34689</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>17743</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>52432</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>55505</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>32902</v>
+        <v>396</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>88408</v>
+        <v>396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,306 +2024,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>28060</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>33434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>61494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>21325</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I23" s="7">
-        <v>819</v>
+        <v>20016</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="N23" s="7">
-        <v>819</v>
+        <v>41342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>2537</v>
+        <v>4098</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>2463</v>
+        <v>1684</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>5000</v>
+        <v>5782</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>18924</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20204</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>39128</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>42390</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>32023</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>74412</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,306 +2332,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>55509</v>
+        <v>55135</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="N27" s="7">
-        <v>119360</v>
+        <v>108618</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="D28" s="7">
-        <v>1125</v>
+        <v>136574</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="I28" s="7">
-        <v>1720</v>
+        <v>166372</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="N28" s="7">
-        <v>2845</v>
+        <v>302946</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>62081</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I29" s="7">
-        <v>929</v>
+        <v>82684</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="N29" s="7">
-        <v>929</v>
+        <v>144765</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>4588</v>
+        <v>10384</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I30" s="7">
-        <v>2997</v>
+        <v>15639</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N30" s="7">
-        <v>7585</v>
+        <v>26023</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>20771</v>
+        <v>163</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>24937</v>
+        <v>3031</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>45708</v>
+        <v>3194</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>29858</v>
+        <v>1269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="H32" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>25901</v>
+        <v>3186</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>55759</v>
+        <v>4456</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,370 +2640,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>75</v>
+        <v>306</v>
       </c>
       <c r="I33" s="7">
-        <v>56484</v>
+        <v>270912</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>145</v>
+        <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>112826</v>
+        <v>481384</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2774</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="7">
-        <v>5</v>
-      </c>
-      <c r="I34" s="7">
-        <v>4527</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="7">
-        <v>10</v>
-      </c>
-      <c r="N34" s="7">
-        <v>7301</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>852</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="7">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7">
-        <v>4875</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M35" s="7">
-        <v>7</v>
-      </c>
-      <c r="N35" s="7">
-        <v>5727</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P35" s="7" t="s">
+      <c r="A34" t="s">
         <v>195</v>
       </c>
-      <c r="Q35" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7">
-        <v>22</v>
-      </c>
-      <c r="D36" s="7">
-        <v>18864</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="7">
-        <v>16</v>
-      </c>
-      <c r="I36" s="7">
-        <v>10428</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M36" s="7">
-        <v>38</v>
-      </c>
-      <c r="N36" s="7">
-        <v>29292</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="7">
-        <v>95</v>
-      </c>
-      <c r="D37" s="7">
-        <v>90530</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H37" s="7">
-        <v>80</v>
-      </c>
-      <c r="I37" s="7">
-        <v>68367</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M37" s="7">
-        <v>175</v>
-      </c>
-      <c r="N37" s="7">
-        <v>158897</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="7">
-        <v>184</v>
-      </c>
-      <c r="D38" s="7">
-        <v>154160</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H38" s="7">
-        <v>163</v>
-      </c>
-      <c r="I38" s="7">
-        <v>114349</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M38" s="7">
-        <v>347</v>
-      </c>
-      <c r="N38" s="7">
-        <v>268509</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>307</v>
-      </c>
-      <c r="D39" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="7">
-        <v>270</v>
-      </c>
-      <c r="I39" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="7">
-        <v>577</v>
-      </c>
-      <c r="N39" s="7">
-        <v>469726</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>224</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
